--- a/dataset/dataset_klasifikasi_tugas.xlsx
+++ b/dataset/dataset_klasifikasi_tugas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bahan Ajar Big Data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78964325-7275-4F6A-B5EF-0583A7069F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BB6CCB-0A43-442B-8265-C13AB894804C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6EC1B897-C9F9-484E-A021-C64F09C870CC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
   <si>
     <t>Mhs</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>berdasarkan data berikut. Maka hitunglah, Apa jurusan mhs tersebut. Apabila Minat: Umum, Pendidikan: SMK Komputer, Gender P, Hobi IT.</t>
   </si>
 </sst>
 </file>
@@ -145,7 +151,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +164,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -191,17 +203,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,15 +559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743AFC7E-35FD-400E-BB6C-552DA8677074}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,8 +586,13 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -564,8 +611,11 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -584,8 +634,11 @@
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -604,8 +657,11 @@
       <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -625,7 +681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -645,7 +701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -665,7 +721,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -685,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -705,7 +761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
@@ -725,7 +781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -745,7 +801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -765,7 +821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -785,7 +841,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -805,7 +861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -825,7 +881,27 @@
         <v>11</v>
       </c>
     </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:I4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/dataset/dataset_klasifikasi_tugas.xlsx
+++ b/dataset/dataset_klasifikasi_tugas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bahan Ajar Big Data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BB6CCB-0A43-442B-8265-C13AB894804C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC78067B-3349-43A1-AB74-40B8A7E1AD8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6EC1B897-C9F9-484E-A021-C64F09C870CC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
   <si>
     <t>Mhs</t>
   </si>
@@ -118,12 +118,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>berdasarkan data berikut. Maka hitunglah, Apa jurusan mhs tersebut. Apabila Minat: Umum, Pendidikan: SMK Komputer, Gender P, Hobi IT.</t>
   </si>
 </sst>
 </file>
@@ -151,7 +145,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,14 +158,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -180,45 +168,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -227,23 +188,17 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,346 +517,343 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="F13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="F14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G1:I4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
